--- a/biology/Zoologie/Argyrogrammana_praestigiosa/Argyrogrammana_praestigiosa.xlsx
+++ b/biology/Zoologie/Argyrogrammana_praestigiosa/Argyrogrammana_praestigiosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana praestigiosa est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Argyrogrammana.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrogrammana praestigiosa a été nommée par Hans Ferdinand Emil Julius Stichel en 1929[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana praestigiosa a été nommée par Hans Ferdinand Emil Julius Stichel en 1929
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrogrammana praestigiosa est un papillon d'une envergure d'environ 30 mm au dessus des ailes antérieures de couleur jaune orangé dans la partie basale, noire barrée de bleu métallique sur tout le reste. Les ailes postérieures sont de couleur jaune orangé marquées de noir[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana praestigiosa est un papillon d'une envergure d'environ 30 mm au dessus des ailes antérieures de couleur jaune orangé dans la partie basale, noire barrée de bleu métallique sur tout le reste. Les ailes postérieures sont de couleur jaune orangé marquées de noir.
 Le revers est beige rayé de marron avec des taches bleu métallique clair à l'apex.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,12 +618,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Argyrogrammana praestigiosa est présent uniquement en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana praestigiosa est présent uniquement en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argyrogrammana_praestigiosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyrogrammana_praestigiosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
